--- a/Laboratory/20211123_입찰자동화툴Test Sample/01_Building List_Pilot Project_2021_1206_mk.xlsx
+++ b/Laboratory/20211123_입찰자동화툴Test Sample/01_Building List_Pilot Project_2021_1206_mk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Building List" sheetId="1" r:id="rId1"/>
@@ -4041,6 +4041,15 @@
     <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4048,15 +4057,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4348,7 +4348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="19" ySplit="5" topLeftCell="AF78" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Z11" sqref="Z11"/>
       <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
@@ -15587,14 +15587,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA69"/>
+  <dimension ref="B2:AA54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Z11" sqref="Z11"/>
       <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
       <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -15626,11 +15626,11 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="64" t="s">
         <v>390</v>
       </c>
@@ -15647,12 +15647,12 @@
       <c r="J5" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="100" t="s">
         <v>395</v>
       </c>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="66" t="s">
         <v>396</v>
       </c>
@@ -15694,11 +15694,11 @@
       </c>
     </row>
     <row r="6" spans="2:27" s="71" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="102" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="67" t="s">
         <v>408</v>
       </c>
@@ -15711,12 +15711,12 @@
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="68"/>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="103" t="s">
         <v>407</v>
       </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
       <c r="O6" s="69" t="s">
         <v>411</v>
       </c>
@@ -16010,11 +16010,11 @@
       <c r="AA12" s="74"/>
     </row>
     <row r="13" spans="2:27" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="64" t="s">
         <v>390</v>
       </c>
@@ -16033,12 +16033,12 @@
       <c r="J13" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="100" t="s">
         <v>395</v>
       </c>
-      <c r="L13" s="103"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
       <c r="O13" s="66" t="s">
         <v>459</v>
       </c>
@@ -16080,11 +16080,11 @@
       </c>
     </row>
     <row r="14" spans="2:27" s="71" customFormat="1" ht="77.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="102" t="s">
         <v>465</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="67" t="s">
         <v>466</v>
       </c>
@@ -16101,12 +16101,12 @@
         <v>672</v>
       </c>
       <c r="J14" s="68"/>
-      <c r="K14" s="100" t="s">
+      <c r="K14" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
       <c r="O14" s="69" t="s">
         <v>471</v>
       </c>
@@ -16394,11 +16394,11 @@
       <c r="AA20" s="74"/>
     </row>
     <row r="21" spans="2:27" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="64" t="s">
         <v>390</v>
       </c>
@@ -16417,12 +16417,12 @@
       <c r="J21" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="K21" s="103" t="s">
+      <c r="K21" s="100" t="s">
         <v>395</v>
       </c>
-      <c r="L21" s="103"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
       <c r="O21" s="66" t="s">
         <v>459</v>
       </c>
@@ -16464,11 +16464,11 @@
       </c>
     </row>
     <row r="22" spans="2:27" s="71" customFormat="1" ht="140.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="102" t="s">
         <v>506</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="67" t="s">
         <v>466</v>
       </c>
@@ -16483,12 +16483,12 @@
       </c>
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
-      <c r="K22" s="100" t="s">
+      <c r="K22" s="103" t="s">
         <v>506</v>
       </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
       <c r="O22" s="69" t="s">
         <v>510</v>
       </c>
@@ -16794,11 +16794,11 @@
       <c r="AA28" s="74"/>
     </row>
     <row r="29" spans="2:27" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="64" t="s">
         <v>543</v>
       </c>
@@ -16815,12 +16815,12 @@
       <c r="J29" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="K29" s="103" t="s">
+      <c r="K29" s="100" t="s">
         <v>395</v>
       </c>
-      <c r="L29" s="103"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
       <c r="O29" s="66" t="s">
         <v>396</v>
       </c>
@@ -16862,23 +16862,23 @@
       </c>
     </row>
     <row r="30" spans="2:27" s="71" customFormat="1" ht="90" x14ac:dyDescent="0.3">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="102" t="s">
         <v>546</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68"/>
-      <c r="K30" s="100" t="s">
+      <c r="K30" s="103" t="s">
         <v>648</v>
       </c>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
       <c r="O30" s="69" t="s">
         <v>547</v>
       </c>
@@ -17124,11 +17124,11 @@
       <c r="AA36" s="74"/>
     </row>
     <row r="37" spans="2:27" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="64" t="s">
         <v>543</v>
       </c>
@@ -17145,12 +17145,12 @@
       <c r="J37" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="K37" s="103" t="s">
+      <c r="K37" s="100" t="s">
         <v>395</v>
       </c>
-      <c r="L37" s="103"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
       <c r="O37" s="66" t="s">
         <v>396</v>
       </c>
@@ -17192,11 +17192,11 @@
       </c>
     </row>
     <row r="38" spans="2:27" s="71" customFormat="1" ht="90" x14ac:dyDescent="0.3">
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="102" t="s">
         <v>563</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="67" t="s">
         <v>564</v>
       </c>
@@ -17209,12 +17209,12 @@
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="68"/>
-      <c r="K38" s="100" t="s">
+      <c r="K38" s="103" t="s">
         <v>563</v>
       </c>
-      <c r="L38" s="100"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
       <c r="O38" s="69" t="s">
         <v>567</v>
       </c>
@@ -17618,11 +17618,11 @@
       <c r="AA46" s="74"/>
     </row>
     <row r="47" spans="2:27" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="64" t="s">
         <v>390</v>
       </c>
@@ -17639,12 +17639,12 @@
       <c r="J47" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="K47" s="103" t="s">
+      <c r="K47" s="100" t="s">
         <v>610</v>
       </c>
-      <c r="L47" s="103"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
       <c r="O47" s="66" t="s">
         <v>459</v>
       </c>
@@ -17686,11 +17686,11 @@
       </c>
     </row>
     <row r="48" spans="2:27" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="102" t="s">
         <v>611</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="67" t="s">
         <v>564</v>
       </c>
@@ -17699,12 +17699,12 @@
       <c r="H48" s="67"/>
       <c r="I48" s="67"/>
       <c r="J48" s="68"/>
-      <c r="K48" s="100" t="s">
+      <c r="K48" s="103" t="s">
         <v>611</v>
       </c>
-      <c r="L48" s="100"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="69" t="s">
         <v>612</v>
       </c>
@@ -17961,92 +17961,32 @@
       <c r="Z54" s="74"/>
       <c r="AA54" s="74"/>
     </row>
-    <row r="55" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-    </row>
-    <row r="56" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-    </row>
-    <row r="57" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-    </row>
-    <row r="58" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-    </row>
-    <row r="59" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-    </row>
-    <row r="60" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-    </row>
-    <row r="61" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
-    </row>
-    <row r="62" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-    </row>
-    <row r="63" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K63" s="73"/>
-      <c r="L63" s="73"/>
-    </row>
-    <row r="64" spans="2:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-    </row>
-    <row r="65" spans="11:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-    </row>
-    <row r="66" spans="11:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K66" s="73"/>
-      <c r="L66" s="73"/>
-    </row>
-    <row r="67" spans="11:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-    </row>
-    <row r="68" spans="11:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-    </row>
-    <row r="69" spans="11:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="K13:N13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="K48:N48"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
